--- a/gzl_reporte/report/FormatoOC.xlsx
+++ b/gzl_reporte/report/FormatoOC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gizlocorp\promoautoecuador\gzl_reporte\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8DFF41-3E40-4EB1-8F74-F0346CC220F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A76905-AABD-4703-A8D1-CBAA1BF24427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14160" yWindow="3735" windowWidth="15375" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1440" yWindow="1785" windowWidth="7155" windowHeight="6960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OrdenCompra" sheetId="4" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Dirección:</t>
   </si>
@@ -79,15 +79,6 @@
     <t>Sírvase a encontrar orden de facturación del siguiente vehículo, a nombre de nuestra socia adjudicada:</t>
   </si>
   <si>
-    <t>Adjudicada:</t>
-  </si>
-  <si>
-    <t>Cedula:</t>
-  </si>
-  <si>
-    <t>Celular:</t>
-  </si>
-  <si>
     <t>DATOS DEL BIEN</t>
   </si>
   <si>
@@ -124,16 +115,31 @@
     <t xml:space="preserve">PROMOAUTO ECUADOR S.A </t>
   </si>
   <si>
-    <t>Adjudicaciones</t>
-  </si>
-  <si>
-    <t>VEHICULO CON RESERVA DE DOMINIO A FAVOR DE PROMOAUTO S.A.</t>
-  </si>
-  <si>
-    <t>VALOR A TRANSFERIR</t>
-  </si>
-  <si>
-    <t>RETENCIÓN A PAGAR</t>
+    <t>MONTO ADJUDICADO</t>
+  </si>
+  <si>
+    <t>VALOR DEL CHEQUE/TRANSFERENCIA</t>
+  </si>
+  <si>
+    <t>Adjudicado:</t>
+  </si>
+  <si>
+    <t>Cedula/Ruc:</t>
+  </si>
+  <si>
+    <t>Telefono:</t>
+  </si>
+  <si>
+    <t>VALOR DE RETENCION</t>
+  </si>
+  <si>
+    <t>VENTA CON RESERVA DE DOMINIO A FAVOR DE PROMOAUTOECUADOR S.A.</t>
+  </si>
+  <si>
+    <t>ROXANA AVILES</t>
+  </si>
+  <si>
+    <t>ADJUDICACIONES</t>
   </si>
 </sst>
 </file>
@@ -254,22 +260,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -280,32 +279,38 @@
     <xf numFmtId="167" fontId="4" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -446,6 +451,124 @@
         <a:xfrm>
           <a:off x="487680" y="274321"/>
           <a:ext cx="731621" cy="746760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectángulo 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{630A83A6-CC86-462E-8789-C2FF7B52A671}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="381000" y="152401"/>
+          <a:ext cx="901065" cy="977264"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-EC" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38201</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>60961</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50C65F0A-FA11-46E0-857B-39F2F0FB9D14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="480060" y="276226"/>
+          <a:ext cx="710666" cy="737235"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -760,10 +883,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B2:G49"/>
+  <dimension ref="B2:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="91" zoomScaleNormal="100" zoomScaleSheetLayoutView="91" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18:G18"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -771,44 +894,45 @@
     <col min="1" max="1" width="5.7109375" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="10"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="7"/>
     </row>
     <row r="3" spans="2:7" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="10"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="10"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="7"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="13">
         <f ca="1">TODAY()</f>
-        <v>44841</v>
-      </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
+        <v>44902</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
@@ -816,7 +940,7 @@
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B10" s="2"/>
+      <c r="B10" s="1"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
@@ -824,210 +948,235 @@
       </c>
     </row>
     <row r="13" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
     </row>
     <row r="14" spans="2:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+    </row>
+    <row r="18" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B21" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B17" s="9" t="s">
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B23" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-    </row>
-    <row r="18" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="11" t="s">
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B25" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B26" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B28" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B30" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B31" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B32" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B33" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B34" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B35" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="9">
+        <f>E32</f>
         <v>0</v>
       </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B23" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B24" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B25" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B26" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B28" s="23" t="s">
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="5"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B30" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="4">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B31" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="6">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B32" s="13" t="s">
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B40" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="6">
-        <v>500</v>
-      </c>
-      <c r="F32" s="5"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B33" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="6">
-        <v>455</v>
-      </c>
-      <c r="F33" s="8"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B34" s="14" t="s">
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="12">
-        <f>+E31+E32+E33</f>
-        <v>3255</v>
-      </c>
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B35" s="17" t="str">
-        <f>IF(E35=0,0,"DIFERENCIA PAGA AL CONCESIONARIO")</f>
-        <v>DIFERENCIA PAGA AL CONCESIONARIO</v>
-      </c>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="7">
-        <f>IF(E34&lt;E30,E30-E34,0)</f>
-        <v>6745</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B39" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B44" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B49" t="s">
-        <v>22</v>
-      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B50" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B51" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B52" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="B39:G39"/>
+  <mergeCells count="16">
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="B40:G40"/>
     <mergeCell ref="D2:F4"/>
-    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="B14:G14"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D19:E19"/>
     <mergeCell ref="D18:G18"/>
     <mergeCell ref="B13:G13"/>
     <mergeCell ref="B21:G21"/>
     <mergeCell ref="B28:G28"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D24:G24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
